--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Wnt16</t>
   </si>
   <si>
     <t>Lrp5</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.233256754416948</v>
+        <v>0.3204226666666667</v>
       </c>
       <c r="H2">
-        <v>0.233256754416948</v>
+        <v>0.961268</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3914050087502066</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3914050087502067</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.416405471499</v>
+        <v>13.521022</v>
       </c>
       <c r="N2">
-        <v>12.416405471499</v>
+        <v>40.563066</v>
       </c>
       <c r="O2">
-        <v>0.3266648556590636</v>
+        <v>0.3282908109760463</v>
       </c>
       <c r="P2">
-        <v>0.3266648556590636</v>
+        <v>0.3282908109760462</v>
       </c>
       <c r="Q2">
-        <v>2.896210441806692</v>
+        <v>4.332441925298667</v>
       </c>
       <c r="R2">
-        <v>2.896210441806692</v>
+        <v>38.991977327688</v>
       </c>
       <c r="S2">
-        <v>0.3266648556590636</v>
+        <v>0.1284946677426918</v>
       </c>
       <c r="T2">
-        <v>0.3266648556590636</v>
+        <v>0.1284946677426918</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.233256754416948</v>
+        <v>0.3204226666666667</v>
       </c>
       <c r="H3">
-        <v>0.233256754416948</v>
+        <v>0.961268</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3914050087502066</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3914050087502067</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.91150800457752</v>
+        <v>4.977299666666667</v>
       </c>
       <c r="N3">
-        <v>4.91150800457752</v>
+        <v>14.931899</v>
       </c>
       <c r="O3">
-        <v>0.1292175144462283</v>
+        <v>0.1208489819808595</v>
       </c>
       <c r="P3">
-        <v>0.1292175144462283</v>
+        <v>0.1208489819808595</v>
       </c>
       <c r="Q3">
-        <v>1.145642416440613</v>
+        <v>1.594839631992445</v>
       </c>
       <c r="R3">
-        <v>1.145642416440613</v>
+        <v>14.353556687932</v>
       </c>
       <c r="S3">
-        <v>0.1292175144462283</v>
+        <v>0.04730089684967188</v>
       </c>
       <c r="T3">
-        <v>0.1292175144462283</v>
+        <v>0.04730089684967188</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.233256754416948</v>
+        <v>0.3204226666666667</v>
       </c>
       <c r="H4">
-        <v>0.233256754416948</v>
+        <v>0.961268</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3914050087502066</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3914050087502067</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.06143507078979</v>
+        <v>5.309148666666666</v>
       </c>
       <c r="N4">
-        <v>5.06143507078979</v>
+        <v>15.927446</v>
       </c>
       <c r="O4">
-        <v>0.1331619654836916</v>
+        <v>0.1289062854399907</v>
       </c>
       <c r="P4">
-        <v>0.1331619654836916</v>
+        <v>0.1289062854399907</v>
       </c>
       <c r="Q4">
-        <v>1.180613917304542</v>
+        <v>1.701171573503111</v>
       </c>
       <c r="R4">
-        <v>1.180613917304542</v>
+        <v>15.310544161528</v>
       </c>
       <c r="S4">
-        <v>0.1331619654836916</v>
+        <v>0.05045456578059621</v>
       </c>
       <c r="T4">
-        <v>0.1331619654836916</v>
+        <v>0.05045456578059622</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.233256754416948</v>
+        <v>0.3204226666666667</v>
       </c>
       <c r="H5">
-        <v>0.233256754416948</v>
+        <v>0.961268</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.3914050087502066</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.3914050087502067</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.4722483688673</v>
+        <v>7.585411999999999</v>
       </c>
       <c r="N5">
-        <v>7.4722483688673</v>
+        <v>22.756236</v>
       </c>
       <c r="O5">
-        <v>0.1965883717689209</v>
+        <v>0.1841740259772843</v>
       </c>
       <c r="P5">
-        <v>0.1965883717689209</v>
+        <v>0.1841740259772843</v>
       </c>
       <c r="Q5">
-        <v>1.74295240271932</v>
+        <v>2.430537940805333</v>
       </c>
       <c r="R5">
-        <v>1.74295240271932</v>
+        <v>21.874841467248</v>
       </c>
       <c r="S5">
-        <v>0.1965883717689209</v>
+        <v>0.07208663624919975</v>
       </c>
       <c r="T5">
-        <v>0.1965883717689209</v>
+        <v>0.07208663624919977</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.233256754416948</v>
+        <v>0.3204226666666667</v>
       </c>
       <c r="H6">
-        <v>0.233256754416948</v>
+        <v>0.961268</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.3914050087502066</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.3914050087502067</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.00084241956244</v>
+        <v>2.036727666666667</v>
       </c>
       <c r="N6">
-        <v>2.00084241956244</v>
+        <v>6.110183</v>
       </c>
       <c r="O6">
-        <v>0.05264042815637752</v>
+        <v>0.04945180752071482</v>
       </c>
       <c r="P6">
-        <v>0.05264042815637752</v>
+        <v>0.04945180752071481</v>
       </c>
       <c r="Q6">
-        <v>0.4667100088868881</v>
+        <v>0.6526137102271111</v>
       </c>
       <c r="R6">
-        <v>0.4667100088868881</v>
+        <v>5.873523392044</v>
       </c>
       <c r="S6">
-        <v>0.05264042815637752</v>
+        <v>0.01935568515535892</v>
       </c>
       <c r="T6">
-        <v>0.05264042815637752</v>
+        <v>0.01935568515535892</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1177 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.233256754416948</v>
+        <v>0.3204226666666667</v>
       </c>
       <c r="H7">
-        <v>0.233256754416948</v>
+        <v>0.961268</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.3914050087502066</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.3914050087502067</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.14717589082997</v>
+        <v>7.756501666666668</v>
       </c>
       <c r="N7">
-        <v>6.14717589082997</v>
+        <v>23.269505</v>
       </c>
       <c r="O7">
-        <v>0.1617268644857181</v>
+        <v>0.1883280881051044</v>
       </c>
       <c r="P7">
-        <v>0.1617268644857181</v>
+        <v>0.1883280881051044</v>
       </c>
       <c r="Q7">
-        <v>1.43387029712511</v>
+        <v>2.485358948037778</v>
       </c>
       <c r="R7">
-        <v>1.43387029712511</v>
+        <v>22.36823053234</v>
       </c>
       <c r="S7">
-        <v>0.1617268644857181</v>
+        <v>0.07371255697268807</v>
       </c>
       <c r="T7">
-        <v>0.1617268644857181</v>
+        <v>0.07371255697268807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.2427916666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.728375</v>
+      </c>
+      <c r="I8">
+        <v>0.2965766292526452</v>
+      </c>
+      <c r="J8">
+        <v>0.2965766292526452</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>13.521022</v>
+      </c>
+      <c r="N8">
+        <v>40.563066</v>
+      </c>
+      <c r="O8">
+        <v>0.3282908109760463</v>
+      </c>
+      <c r="P8">
+        <v>0.3282908109760462</v>
+      </c>
+      <c r="Q8">
+        <v>3.282791466416667</v>
+      </c>
+      <c r="R8">
+        <v>29.54512319775</v>
+      </c>
+      <c r="S8">
+        <v>0.09736338213389309</v>
+      </c>
+      <c r="T8">
+        <v>0.09736338213389309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.2427916666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.728375</v>
+      </c>
+      <c r="I9">
+        <v>0.2965766292526452</v>
+      </c>
+      <c r="J9">
+        <v>0.2965766292526452</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.977299666666667</v>
+      </c>
+      <c r="N9">
+        <v>14.931899</v>
+      </c>
+      <c r="O9">
+        <v>0.1208489819808595</v>
+      </c>
+      <c r="P9">
+        <v>0.1208489819808595</v>
+      </c>
+      <c r="Q9">
+        <v>1.208446881569444</v>
+      </c>
+      <c r="R9">
+        <v>10.876021934125</v>
+      </c>
+      <c r="S9">
+        <v>0.03584098372449697</v>
+      </c>
+      <c r="T9">
+        <v>0.03584098372449697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.2427916666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.728375</v>
+      </c>
+      <c r="I10">
+        <v>0.2965766292526452</v>
+      </c>
+      <c r="J10">
+        <v>0.2965766292526452</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.309148666666666</v>
+      </c>
+      <c r="N10">
+        <v>15.927446</v>
+      </c>
+      <c r="O10">
+        <v>0.1289062854399907</v>
+      </c>
+      <c r="P10">
+        <v>0.1289062854399907</v>
+      </c>
+      <c r="Q10">
+        <v>1.289017053361111</v>
+      </c>
+      <c r="R10">
+        <v>11.60115348025</v>
+      </c>
+      <c r="S10">
+        <v>0.03823059162527179</v>
+      </c>
+      <c r="T10">
+        <v>0.03823059162527179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.2427916666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.728375</v>
+      </c>
+      <c r="I11">
+        <v>0.2965766292526452</v>
+      </c>
+      <c r="J11">
+        <v>0.2965766292526452</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.585411999999999</v>
+      </c>
+      <c r="N11">
+        <v>22.756236</v>
+      </c>
+      <c r="O11">
+        <v>0.1841740259772843</v>
+      </c>
+      <c r="P11">
+        <v>0.1841740259772843</v>
+      </c>
+      <c r="Q11">
+        <v>1.841674821833333</v>
+      </c>
+      <c r="R11">
+        <v>16.5750733965</v>
+      </c>
+      <c r="S11">
+        <v>0.05462171182023209</v>
+      </c>
+      <c r="T11">
+        <v>0.0546217118202321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2427916666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.728375</v>
+      </c>
+      <c r="I12">
+        <v>0.2965766292526452</v>
+      </c>
+      <c r="J12">
+        <v>0.2965766292526452</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.036727666666667</v>
+      </c>
+      <c r="N12">
+        <v>6.110183</v>
+      </c>
+      <c r="O12">
+        <v>0.04945180752071482</v>
+      </c>
+      <c r="P12">
+        <v>0.04945180752071481</v>
+      </c>
+      <c r="Q12">
+        <v>0.4945005047361111</v>
+      </c>
+      <c r="R12">
+        <v>4.450504542625001</v>
+      </c>
+      <c r="S12">
+        <v>0.01466625038494421</v>
+      </c>
+      <c r="T12">
+        <v>0.01466625038494421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2427916666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.728375</v>
+      </c>
+      <c r="I13">
+        <v>0.2965766292526452</v>
+      </c>
+      <c r="J13">
+        <v>0.2965766292526452</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.756501666666668</v>
+      </c>
+      <c r="N13">
+        <v>23.269505</v>
+      </c>
+      <c r="O13">
+        <v>0.1883280881051044</v>
+      </c>
+      <c r="P13">
+        <v>0.1883280881051044</v>
+      </c>
+      <c r="Q13">
+        <v>1.883213967152778</v>
+      </c>
+      <c r="R13">
+        <v>16.948925704375</v>
+      </c>
+      <c r="S13">
+        <v>0.05585370956380704</v>
+      </c>
+      <c r="T13">
+        <v>0.05585370956380704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1267976666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.380393</v>
+      </c>
+      <c r="I14">
+        <v>0.1548868010726638</v>
+      </c>
+      <c r="J14">
+        <v>0.1548868010726638</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.521022</v>
+      </c>
+      <c r="N14">
+        <v>40.563066</v>
+      </c>
+      <c r="O14">
+        <v>0.3282908109760463</v>
+      </c>
+      <c r="P14">
+        <v>0.3282908109760462</v>
+      </c>
+      <c r="Q14">
+        <v>1.714434040548667</v>
+      </c>
+      <c r="R14">
+        <v>15.429906364938</v>
+      </c>
+      <c r="S14">
+        <v>0.05084791353363034</v>
+      </c>
+      <c r="T14">
+        <v>0.05084791353363034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1267976666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.380393</v>
+      </c>
+      <c r="I15">
+        <v>0.1548868010726638</v>
+      </c>
+      <c r="J15">
+        <v>0.1548868010726638</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.977299666666667</v>
+      </c>
+      <c r="N15">
+        <v>14.931899</v>
+      </c>
+      <c r="O15">
+        <v>0.1208489819808595</v>
+      </c>
+      <c r="P15">
+        <v>0.1208489819808595</v>
+      </c>
+      <c r="Q15">
+        <v>0.6311099840341112</v>
+      </c>
+      <c r="R15">
+        <v>5.679989856307</v>
+      </c>
+      <c r="S15">
+        <v>0.01871791223190331</v>
+      </c>
+      <c r="T15">
+        <v>0.01871791223190332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1267976666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.380393</v>
+      </c>
+      <c r="I16">
+        <v>0.1548868010726638</v>
+      </c>
+      <c r="J16">
+        <v>0.1548868010726638</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.309148666666666</v>
+      </c>
+      <c r="N16">
+        <v>15.927446</v>
+      </c>
+      <c r="O16">
+        <v>0.1289062854399907</v>
+      </c>
+      <c r="P16">
+        <v>0.1289062854399907</v>
+      </c>
+      <c r="Q16">
+        <v>0.6731876629197777</v>
+      </c>
+      <c r="R16">
+        <v>6.058688966278</v>
+      </c>
+      <c r="S16">
+        <v>0.01996588218995986</v>
+      </c>
+      <c r="T16">
+        <v>0.01996588218995986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1267976666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.380393</v>
+      </c>
+      <c r="I17">
+        <v>0.1548868010726638</v>
+      </c>
+      <c r="J17">
+        <v>0.1548868010726638</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.585411999999999</v>
+      </c>
+      <c r="N17">
+        <v>22.756236</v>
+      </c>
+      <c r="O17">
+        <v>0.1841740259772843</v>
+      </c>
+      <c r="P17">
+        <v>0.1841740259772843</v>
+      </c>
+      <c r="Q17">
+        <v>0.9618125423053332</v>
+      </c>
+      <c r="R17">
+        <v>8.656312880747999</v>
+      </c>
+      <c r="S17">
+        <v>0.02852612572429524</v>
+      </c>
+      <c r="T17">
+        <v>0.02852612572429525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1267976666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.380393</v>
+      </c>
+      <c r="I18">
+        <v>0.1548868010726638</v>
+      </c>
+      <c r="J18">
+        <v>0.1548868010726638</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.036727666666667</v>
+      </c>
+      <c r="N18">
+        <v>6.110183</v>
+      </c>
+      <c r="O18">
+        <v>0.04945180752071482</v>
+      </c>
+      <c r="P18">
+        <v>0.04945180752071481</v>
+      </c>
+      <c r="Q18">
+        <v>0.2582523157687778</v>
+      </c>
+      <c r="R18">
+        <v>2.324270841919</v>
+      </c>
+      <c r="S18">
+        <v>0.007659432274144613</v>
+      </c>
+      <c r="T18">
+        <v>0.007659432274144614</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1267976666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.380393</v>
+      </c>
+      <c r="I19">
+        <v>0.1548868010726638</v>
+      </c>
+      <c r="J19">
+        <v>0.1548868010726638</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.756501666666668</v>
+      </c>
+      <c r="N19">
+        <v>23.269505</v>
+      </c>
+      <c r="O19">
+        <v>0.1883280881051044</v>
+      </c>
+      <c r="P19">
+        <v>0.1883280881051044</v>
+      </c>
+      <c r="Q19">
+        <v>0.9835063128294446</v>
+      </c>
+      <c r="R19">
+        <v>8.851556815465001</v>
+      </c>
+      <c r="S19">
+        <v>0.0291695351187304</v>
+      </c>
+      <c r="T19">
+        <v>0.0291695351187304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1286353333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.385906</v>
+      </c>
+      <c r="I20">
+        <v>0.1571315609244844</v>
+      </c>
+      <c r="J20">
+        <v>0.1571315609244844</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>13.521022</v>
+      </c>
+      <c r="N20">
+        <v>40.563066</v>
+      </c>
+      <c r="O20">
+        <v>0.3282908109760463</v>
+      </c>
+      <c r="P20">
+        <v>0.3282908109760462</v>
+      </c>
+      <c r="Q20">
+        <v>1.739281171977334</v>
+      </c>
+      <c r="R20">
+        <v>15.653530547796</v>
+      </c>
+      <c r="S20">
+        <v>0.051584847565831</v>
+      </c>
+      <c r="T20">
+        <v>0.051584847565831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1286353333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.385906</v>
+      </c>
+      <c r="I21">
+        <v>0.1571315609244844</v>
+      </c>
+      <c r="J21">
+        <v>0.1571315609244844</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.977299666666667</v>
+      </c>
+      <c r="N21">
+        <v>14.931899</v>
+      </c>
+      <c r="O21">
+        <v>0.1208489819808595</v>
+      </c>
+      <c r="P21">
+        <v>0.1208489819808595</v>
+      </c>
+      <c r="Q21">
+        <v>0.6402566017215557</v>
+      </c>
+      <c r="R21">
+        <v>5.762309415494001</v>
+      </c>
+      <c r="S21">
+        <v>0.01898918917478734</v>
+      </c>
+      <c r="T21">
+        <v>0.01898918917478734</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1286353333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.385906</v>
+      </c>
+      <c r="I22">
+        <v>0.1571315609244844</v>
+      </c>
+      <c r="J22">
+        <v>0.1571315609244844</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.309148666666666</v>
+      </c>
+      <c r="N22">
+        <v>15.927446</v>
+      </c>
+      <c r="O22">
+        <v>0.1289062854399907</v>
+      </c>
+      <c r="P22">
+        <v>0.1289062854399907</v>
+      </c>
+      <c r="Q22">
+        <v>0.6829441084528889</v>
+      </c>
+      <c r="R22">
+        <v>6.146496976076</v>
+      </c>
+      <c r="S22">
+        <v>0.02025524584416288</v>
+      </c>
+      <c r="T22">
+        <v>0.02025524584416288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1286353333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.385906</v>
+      </c>
+      <c r="I23">
+        <v>0.1571315609244844</v>
+      </c>
+      <c r="J23">
+        <v>0.1571315609244844</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.585411999999999</v>
+      </c>
+      <c r="N23">
+        <v>22.756236</v>
+      </c>
+      <c r="O23">
+        <v>0.1841740259772843</v>
+      </c>
+      <c r="P23">
+        <v>0.1841740259772843</v>
+      </c>
+      <c r="Q23">
+        <v>0.9757520010906666</v>
+      </c>
+      <c r="R23">
+        <v>8.781768009816</v>
+      </c>
+      <c r="S23">
+        <v>0.02893955218355722</v>
+      </c>
+      <c r="T23">
+        <v>0.02893955218355722</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1286353333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.385906</v>
+      </c>
+      <c r="I24">
+        <v>0.1571315609244844</v>
+      </c>
+      <c r="J24">
+        <v>0.1571315609244844</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.036727666666667</v>
+      </c>
+      <c r="N24">
+        <v>6.110183</v>
+      </c>
+      <c r="O24">
+        <v>0.04945180752071482</v>
+      </c>
+      <c r="P24">
+        <v>0.04945180752071481</v>
+      </c>
+      <c r="Q24">
+        <v>0.2619951423108889</v>
+      </c>
+      <c r="R24">
+        <v>2.357956280798</v>
+      </c>
+      <c r="S24">
+        <v>0.007770439706267076</v>
+      </c>
+      <c r="T24">
+        <v>0.007770439706267074</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1286353333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.385906</v>
+      </c>
+      <c r="I25">
+        <v>0.1571315609244844</v>
+      </c>
+      <c r="J25">
+        <v>0.1571315609244844</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.756501666666668</v>
+      </c>
+      <c r="N25">
+        <v>23.269505</v>
+      </c>
+      <c r="O25">
+        <v>0.1883280881051044</v>
+      </c>
+      <c r="P25">
+        <v>0.1883280881051044</v>
+      </c>
+      <c r="Q25">
+        <v>0.9977601773922224</v>
+      </c>
+      <c r="R25">
+        <v>8.979841596530001</v>
+      </c>
+      <c r="S25">
+        <v>0.02959228644987888</v>
+      </c>
+      <c r="T25">
+        <v>0.02959228644987887</v>
       </c>
     </row>
   </sheetData>
